--- a/src/User.xlsx
+++ b/src/User.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\consolseshop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70759B51-1220-48D6-982A-FCEDA1FFEE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE7E5C-8E15-4AF8-9FD6-E93652427885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,19 +47,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>桂电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>zs1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lisi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -420,10 +420,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>18007886167</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>18007886168</v>

--- a/src/User.xlsx
+++ b/src/User.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\consolseshop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE7E5C-8E15-4AF8-9FD6-E93652427885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA0E63-DA29-4404-824D-EB63A74CA70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5772" yWindow="0" windowWidth="17268" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
